--- a/Input_files/Actual_testcases/Kaman/LogixalQABox2/ALL_PAGES/END_TO_END/TC43_Verify_PlaceOrder_SelfService_MultiUser.xlsx
+++ b/Input_files/Actual_testcases/Kaman/LogixalQABox2/ALL_PAGES/END_TO_END/TC43_Verify_PlaceOrder_SelfService_MultiUser.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23029"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ROhit\Rohit\Automation\Demo\KAMANLiveBranch\Input_files\Actual_testcases\Kaman\LogixalQABox2\ALL_PAGES\END_TO_END\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A04E6949-5108-4314-A514-B215AF6F2AB7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TC43_Verify_PlaceOrder_SS_MU" sheetId="1" r:id="rId1"/>
@@ -347,9 +353,6 @@
     <t>PlaceOrderSuccessNew</t>
   </si>
   <si>
-    <t>TC43 Verify_PlaceOrder_SelfService_MultiUser</t>
-  </si>
-  <si>
     <t>$SelfService_MU_Username</t>
   </si>
   <si>
@@ -375,12 +378,15 @@
   </si>
   <si>
     <t>JSElement</t>
+  </si>
+  <si>
+    <t>TC43 Verify_PlaceOrder_Self_Service_MultiUser</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="4">
     <font>
       <sz val="11"/>
@@ -808,11 +814,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E56"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -843,7 +849,7 @@
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="5" t="s">
-        <v>110</v>
+        <v>119</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>5</v>
@@ -857,16 +863,16 @@
     <row r="3" spans="1:5">
       <c r="A3" s="3"/>
       <c r="B3" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="C3" s="3" t="s">
         <v>113</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="D3" s="3" t="s">
         <v>114</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="E3" s="3" t="s">
         <v>115</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>116</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -881,16 +887,16 @@
     <row r="5" spans="1:5">
       <c r="A5" s="3"/>
       <c r="B5" s="3" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C5" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="E5" s="3" t="s">
         <v>117</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>115</v>
-      </c>
-      <c r="E5" s="3" t="s">
-        <v>118</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -1529,10 +1535,10 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:B60"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A50" workbookViewId="0">
+    <sheetView topLeftCell="A50" workbookViewId="0">
       <selection activeCell="B63" sqref="B63"/>
     </sheetView>
   </sheetViews>
@@ -1563,7 +1569,7 @@
         <v>10</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -1571,7 +1577,7 @@
         <v>11</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -2008,23 +2014,23 @@
     </row>
     <row r="59" spans="1:2">
       <c r="A59" s="3" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B59" s="3" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="60" spans="1:2">
       <c r="A60" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="B60" s="3" t="s">
         <v>118</v>
-      </c>
-      <c r="B60" s="3" t="s">
-        <v>119</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B35" r:id="rId1"/>
+    <hyperlink ref="B35" r:id="rId1" xr:uid="{00000000-0004-0000-0100-000000000000}"/>
   </hyperlinks>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId2"/>
@@ -2032,12 +2038,9 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2238,15 +2241,19 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{75986BA1-ED37-4C63-93A8-4C325EA50F3E}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{201F13FF-ABE4-451A-88FD-FA1FE3D91855}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -2271,10 +2278,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{201F13FF-ABE4-451A-88FD-FA1FE3D91855}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{75986BA1-ED37-4C63-93A8-4C325EA50F3E}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>